--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDA6F07-B35D-4EB7-9AA4-95F51FC615BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B826F95C-7F81-4210-A043-4EF50949EE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24255" yWindow="750" windowWidth="23310" windowHeight="18780" activeTab="1" xr2:uid="{6DD32C6D-029E-47B4-8C65-558DF8B75799}"/>
+    <workbookView xWindow="-40320" yWindow="2925" windowWidth="38700" windowHeight="15345" xr2:uid="{6DD32C6D-029E-47B4-8C65-558DF8B75799}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Price</t>
   </si>
@@ -57,9 +57,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q124</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
@@ -158,7 +158,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -223,7 +223,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C942AA-B6AF-4984-B54C-99A7CF3AFC68}">
   <dimension ref="L2:N7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>461.61</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="12:14" x14ac:dyDescent="0.2">
@@ -585,10 +585,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="3">
-        <v>55.9</v>
+        <v>64</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="12:14" x14ac:dyDescent="0.2">
@@ -597,26 +597,39 @@
       </c>
       <c r="M4" s="3">
         <f>+M2*M3</f>
-        <v>25803.999</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="5" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L5" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>1670</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L6" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>2174</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <f>+M4-M5+M6</f>
+        <v>26104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -627,11 +640,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FE6C7D-EA71-4C2B-9AB3-D1EA14327AC1}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -645,7 +658,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -679,7 +692,7 @@
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6">
@@ -711,7 +724,7 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4">
@@ -743,39 +756,39 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4">
-        <f>+D3-D4</f>
+        <f t="shared" ref="D5:K5" si="0">+D3-D4</f>
         <v>347.53500000000008</v>
       </c>
       <c r="E5" s="4">
-        <f>+E3-E4</f>
+        <f t="shared" si="0"/>
         <v>337.42200000000003</v>
       </c>
       <c r="F5" s="4">
-        <f>+F3-F4</f>
+        <f t="shared" si="0"/>
         <v>226.35900000000015</v>
       </c>
       <c r="G5" s="4">
-        <f>+G3-G4</f>
+        <f t="shared" si="0"/>
         <v>371.69599999999991</v>
       </c>
       <c r="H5" s="4">
-        <f>+H3-H4</f>
+        <f t="shared" si="0"/>
         <v>353.69100000000003</v>
       </c>
       <c r="I5" s="4">
-        <f>+I3-I4</f>
+        <f t="shared" si="0"/>
         <v>564.32200000000012</v>
       </c>
       <c r="J5" s="4">
-        <f>+J3-J4</f>
+        <f t="shared" si="0"/>
         <v>597.36799999999994</v>
       </c>
       <c r="K5" s="4">
-        <f>+K3-K4</f>
+        <f t="shared" si="0"/>
         <v>596.34799999999996</v>
       </c>
       <c r="L5" s="4"/>
@@ -783,7 +796,7 @@
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
@@ -815,7 +828,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
@@ -847,7 +860,7 @@
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
@@ -879,39 +892,39 @@
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
-        <f>SUM(D6:D8)</f>
+        <f t="shared" ref="D9:K9" si="1">SUM(D6:D8)</f>
         <v>127.41199999999999</v>
       </c>
       <c r="E9" s="4">
-        <f>SUM(E6:E8)</f>
+        <f t="shared" si="1"/>
         <v>122.24000000000001</v>
       </c>
       <c r="F9" s="4">
-        <f>SUM(F6:F8)</f>
+        <f t="shared" si="1"/>
         <v>127.277</v>
       </c>
       <c r="G9" s="4">
-        <f>SUM(G6:G8)</f>
+        <f t="shared" si="1"/>
         <v>144.941</v>
       </c>
       <c r="H9" s="4">
-        <f>SUM(H6:H8)</f>
+        <f t="shared" si="1"/>
         <v>181.18100000000001</v>
       </c>
       <c r="I9" s="4">
-        <f>SUM(I6:I8)</f>
+        <f t="shared" si="1"/>
         <v>192.858</v>
       </c>
       <c r="J9" s="4">
-        <f>SUM(J6:J8)</f>
+        <f t="shared" si="1"/>
         <v>219.054</v>
       </c>
       <c r="K9" s="4">
-        <f>SUM(K6:K8)</f>
+        <f t="shared" si="1"/>
         <v>252.94400000000002</v>
       </c>
       <c r="L9" s="4"/>
@@ -919,39 +932,39 @@
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
-        <f>+D5-D9</f>
+        <f t="shared" ref="D10:K10" si="2">+D5-D9</f>
         <v>220.1230000000001</v>
       </c>
       <c r="E10" s="4">
-        <f>+E5-E9</f>
+        <f t="shared" si="2"/>
         <v>215.18200000000002</v>
       </c>
       <c r="F10" s="4">
-        <f>+F5-F9</f>
+        <f t="shared" si="2"/>
         <v>99.08200000000015</v>
       </c>
       <c r="G10" s="4">
-        <f>+G5-G9</f>
+        <f t="shared" si="2"/>
         <v>226.75499999999991</v>
       </c>
       <c r="H10" s="4">
-        <f>+H5-H9</f>
+        <f t="shared" si="2"/>
         <v>172.51000000000002</v>
       </c>
       <c r="I10" s="4">
-        <f>+I5-I9</f>
+        <f t="shared" si="2"/>
         <v>371.46400000000011</v>
       </c>
       <c r="J10" s="4">
-        <f>+J5-J9</f>
+        <f t="shared" si="2"/>
         <v>378.31399999999996</v>
       </c>
       <c r="K10" s="4">
-        <f>+K5-K9</f>
+        <f t="shared" si="2"/>
         <v>343.40399999999994</v>
       </c>
       <c r="L10" s="4"/>
@@ -959,7 +972,7 @@
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
@@ -999,39 +1012,39 @@
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
-        <f>+D10+D11</f>
+        <f t="shared" ref="D12:K12" si="3">+D10+D11</f>
         <v>224.23900000000009</v>
       </c>
       <c r="E12" s="4">
-        <f>+E10+E11</f>
+        <f t="shared" si="3"/>
         <v>207.09100000000001</v>
       </c>
       <c r="F12" s="4">
-        <f>+F10+F11</f>
+        <f t="shared" si="3"/>
         <v>97.71600000000015</v>
       </c>
       <c r="G12" s="4">
-        <f>+G10+G11</f>
+        <f t="shared" si="3"/>
         <v>225.25099999999992</v>
       </c>
       <c r="H12" s="4">
-        <f>+H10+H11</f>
+        <f t="shared" si="3"/>
         <v>177.26000000000002</v>
       </c>
       <c r="I12" s="4">
-        <f>+I10+I11</f>
+        <f t="shared" si="3"/>
         <v>355.44700000000012</v>
       </c>
       <c r="J12" s="4">
-        <f>+J10+J11</f>
+        <f t="shared" si="3"/>
         <v>382.10299999999995</v>
       </c>
       <c r="K12" s="4">
-        <f>+K10+K11</f>
+        <f t="shared" si="3"/>
         <v>354.24699999999996</v>
       </c>
       <c r="L12" s="4"/>
@@ -1039,7 +1052,7 @@
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
@@ -1077,39 +1090,39 @@
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
-        <f>+D12-D13</f>
+        <f t="shared" ref="D14:K14" si="4">+D12-D13</f>
         <v>185.30500000000009</v>
       </c>
       <c r="E14" s="4">
-        <f>+E12-E13</f>
+        <f t="shared" si="4"/>
         <v>176.167</v>
       </c>
       <c r="F14" s="4">
-        <f>+F12-F13</f>
+        <f t="shared" si="4"/>
         <v>85.846000000000146</v>
       </c>
       <c r="G14" s="4">
-        <f>+G12-G13</f>
+        <f t="shared" si="4"/>
         <v>193.56899999999993</v>
       </c>
       <c r="H14" s="4">
-        <f>+H12-H13</f>
+        <f t="shared" si="4"/>
         <v>157.04500000000002</v>
       </c>
       <c r="I14" s="4">
-        <f>+I12-I13</f>
+        <f t="shared" si="4"/>
         <v>295.96800000000013</v>
       </c>
       <c r="J14" s="4">
-        <f>+J12-J13</f>
+        <f t="shared" si="4"/>
         <v>402.45899999999995</v>
       </c>
       <c r="K14" s="4">
-        <f>+K12-K13</f>
+        <f t="shared" si="4"/>
         <v>352.72699999999998</v>
       </c>
       <c r="L14" s="4"/>
@@ -1117,39 +1130,39 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7">
-        <f>+D14/D16</f>
+        <f t="shared" ref="D15:K15" si="5">+D14/D16</f>
         <v>3.3681407564934491</v>
       </c>
       <c r="E15" s="7">
-        <f>+E14/E16</f>
+        <f t="shared" si="5"/>
         <v>3.137770732402394</v>
       </c>
       <c r="F15" s="7">
-        <f>+F14/F16</f>
+        <f t="shared" si="5"/>
         <v>1.5266124873295066</v>
       </c>
       <c r="G15" s="7">
-        <f>+G14/G16</f>
+        <f t="shared" si="5"/>
         <v>3.4256968409875217</v>
       </c>
       <c r="H15" s="7">
-        <f>+H14/H16</f>
+        <f t="shared" si="5"/>
         <v>2.7462621316778879</v>
       </c>
       <c r="I15" s="7">
-        <f>+I14/I16</f>
+        <f t="shared" si="5"/>
         <v>5.0960432521781076</v>
       </c>
       <c r="J15" s="7">
-        <f>+J14/J16</f>
+        <f t="shared" si="5"/>
         <v>6.5513991307320403</v>
       </c>
       <c r="K15" s="7">
-        <f>+K14/K16</f>
+        <f t="shared" si="5"/>
         <v>5.493505482182905</v>
       </c>
     </row>
@@ -1187,7 +1200,7 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="8">
         <f>+H3/D3-1</f>
@@ -1222,7 +1235,7 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1252,7 +1265,7 @@
     </row>
     <row r="23" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1270,7 +1283,7 @@
     </row>
     <row r="24" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1288,7 +1301,7 @@
     </row>
     <row r="25" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1306,7 +1319,7 @@
     </row>
     <row r="26" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1324,7 +1337,7 @@
     </row>
     <row r="27" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1342,7 +1355,7 @@
     </row>
     <row r="28" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1360,7 +1373,7 @@
     </row>
     <row r="29" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1392,7 +1405,7 @@
     </row>
     <row r="31" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1410,7 +1423,7 @@
     </row>
     <row r="32" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1428,7 +1441,7 @@
     </row>
     <row r="33" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1465,7 +1478,7 @@
     </row>
     <row r="35" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1484,7 +1497,7 @@
     </row>
     <row r="36" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1502,7 +1515,7 @@
     </row>
     <row r="37" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1520,7 +1533,7 @@
     </row>
     <row r="38" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1539,7 +1552,7 @@
     </row>
     <row r="40" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1561,7 +1574,7 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F41" s="4">
         <f>-28.618-E41-D41</f>
@@ -1574,7 +1587,7 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42" s="4">
         <f>+F40+F41</f>

--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B826F95C-7F81-4210-A043-4EF50949EE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5B3376-ECF2-441F-A6A8-81FFEDBC2276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40320" yWindow="2925" windowWidth="38700" windowHeight="15345" xr2:uid="{6DD32C6D-029E-47B4-8C65-558DF8B75799}"/>
+    <workbookView xWindow="-22635" yWindow="2400" windowWidth="22335" windowHeight="15345" xr2:uid="{6DD32C6D-029E-47B4-8C65-558DF8B75799}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Price</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -227,6 +230,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -566,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C942AA-B6AF-4984-B54C-99A7CF3AFC68}">
   <dimension ref="L2:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -577,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>400</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="3" spans="12:14" x14ac:dyDescent="0.2">
@@ -585,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="3">
-        <v>64</v>
+        <v>640</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>37</v>
@@ -597,7 +607,7 @@
       </c>
       <c r="M4" s="3">
         <f>+M2*M3</f>
-        <v>25600</v>
+        <v>13120</v>
       </c>
     </row>
     <row r="5" spans="12:14" x14ac:dyDescent="0.2">
@@ -628,7 +638,7 @@
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>26104</v>
+        <v>13624</v>
       </c>
     </row>
   </sheetData>
@@ -641,10 +651,10 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -689,6 +699,12 @@
       <c r="K2" s="9">
         <v>45473</v>
       </c>
+      <c r="L2" s="9">
+        <v>45565</v>
+      </c>
+      <c r="M2" s="9">
+        <v>45656</v>
+      </c>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
@@ -719,8 +735,12 @@
       <c r="K3" s="6">
         <v>5308.192</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="L3" s="6">
+        <v>5950</v>
+      </c>
+      <c r="M3" s="6">
+        <v>5600</v>
+      </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -1198,33 +1218,80 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="8">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12">
         <f>+H3/D3-1</f>
         <v>0.14445098346228402</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="12">
         <f>+I3/E3-1</f>
         <v>1.0324612701344003</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="12">
         <f>+J3/F3-1</f>
         <v>2.0001387053337654</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="12">
         <f>+K3/G3-1</f>
         <v>1.4295330458093218</v>
       </c>
+      <c r="L18" s="12">
+        <f>+L3/H3-1</f>
+        <v>1.8070380700410253</v>
+      </c>
+      <c r="M18" s="12">
+        <f>+M3/I3-1</f>
+        <v>0.52799894349787335</v>
+      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="8">
+        <f>+E5/E3</f>
+        <v>0.18712452064252622</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" ref="F19:M19" si="6">+F5/F3</f>
+        <v>0.17638876767324152</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="6"/>
+        <v>0.1701234083083546</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="6"/>
+        <v>0.16686119361863536</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="6"/>
+        <v>0.1539791821058227</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" si="6"/>
+        <v>0.15515785963149722</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="6"/>
+        <v>0.11234484359269596</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
